--- a/output/StructureDefinition-eicr-anon-location.xlsx
+++ b/output/StructureDefinition-eicr-anon-location.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T06:32:23+10:00</t>
+    <t>2024-06-13T06:51:52+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-location.xlsx
+++ b/output/StructureDefinition-eicr-anon-location.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T06:51:52+10:00</t>
+    <t>2024-06-13T11:16:16+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-location.xlsx
+++ b/output/StructureDefinition-eicr-anon-location.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T11:16:16+10:00</t>
+    <t>2024-06-14T06:31:35+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-location.xlsx
+++ b/output/StructureDefinition-eicr-anon-location.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T11:16:16+10:00</t>
+    <t>2024-06-18T16:49:21+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1225,7 +1225,7 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-organization)
+    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-org-tele-addr)
 </t>
   </si>
   <si>
@@ -1693,7 +1693,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="85.921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-eicr-anon-location.xlsx
+++ b/output/StructureDefinition-eicr-anon-location.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T16:49:21+10:00</t>
+    <t>2024-06-18T18:40:58+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-location.xlsx
+++ b/output/StructureDefinition-eicr-anon-location.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T18:40:58+10:00</t>
+    <t>2024-06-21T10:51:28+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-location.xlsx
+++ b/output/StructureDefinition-eicr-anon-location.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T10:51:28+10:00</t>
+    <t>2024-06-21T11:31:43+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-location.xlsx
+++ b/output/StructureDefinition-eicr-anon-location.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T11:31:43+10:00</t>
+    <t>2024-06-25T09:09:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
